--- a/data/survival/Westcott/D_survival_06252024.xlsx
+++ b/data/survival/Westcott/D_survival_06252024.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/graceleuchtenberger/Library/Mobile Documents/com~apple~CloudDocs/Documents/project-gigas-conditioning-GL/data/survival/Westcott/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A50184-F636-6941-9569-55A129229D28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EF3D483-98CF-264F-AA48-9D58887B6C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1460" yWindow="740" windowWidth="23820" windowHeight="15440" xr2:uid="{F84241F9-1143-C14F-9498-BDD162CDC0C9}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>bag_num</t>
   </si>
@@ -69,6 +69,18 @@
   </si>
   <si>
     <t>2 sets duplicates</t>
+  </si>
+  <si>
+    <t>surveyor</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Grace</t>
   </si>
 </sst>
 </file>
@@ -447,15 +459,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27B4A9D-A134-7A44-A519-DAED16A32440}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -469,10 +481,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>11</v>
       </c>
@@ -486,10 +501,13 @@
         <v>16</v>
       </c>
       <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>12</v>
       </c>
@@ -503,10 +521,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>13</v>
       </c>
@@ -519,8 +540,11 @@
       <c r="D4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>14</v>
       </c>
@@ -533,8 +557,11 @@
       <c r="D5">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>15</v>
       </c>
@@ -548,10 +575,13 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>16</v>
       </c>
@@ -565,10 +595,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>17</v>
       </c>
@@ -582,10 +615,13 @@
         <v>14</v>
       </c>
       <c r="E8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>18</v>
       </c>
@@ -599,10 +635,13 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>19</v>
       </c>
@@ -615,8 +654,11 @@
       <c r="D10">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20</v>
       </c>
@@ -629,8 +671,11 @@
       <c r="D11">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>21</v>
       </c>
@@ -644,10 +689,13 @@
         <v>14</v>
       </c>
       <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>22</v>
       </c>
@@ -661,10 +709,13 @@
         <v>17</v>
       </c>
       <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>23</v>
       </c>
@@ -677,8 +728,11 @@
       <c r="D14">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>24</v>
       </c>
@@ -691,8 +745,11 @@
       <c r="D15">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>25</v>
       </c>
@@ -705,8 +762,11 @@
       <c r="D16">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>26</v>
       </c>
@@ -720,10 +780,13 @@
         <v>15</v>
       </c>
       <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27</v>
       </c>
@@ -736,8 +799,11 @@
       <c r="D18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>28</v>
       </c>
@@ -751,10 +817,13 @@
         <v>15</v>
       </c>
       <c r="E19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>29</v>
       </c>
@@ -768,10 +837,13 @@
         <v>15</v>
       </c>
       <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>30</v>
       </c>
@@ -784,8 +856,11 @@
       <c r="D21">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>31</v>
       </c>
@@ -798,8 +873,11 @@
       <c r="D22">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>32</v>
       </c>
@@ -811,6 +889,9 @@
       </c>
       <c r="D23">
         <v>15</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
